--- a/Misc/Efforts_Calc.xlsx
+++ b/Misc/Efforts_Calc.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8727CD7D-976D-4F5E-B7DB-12DC65197776}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Netting Effort" sheetId="1" r:id="rId1"/>
     <sheet name="eDNA Effort" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,9 +119,6 @@
     <t>4. No false detections.</t>
   </si>
   <si>
-    <t>The probability a pike is present in a region is the proportion of total area that region represents.</t>
-  </si>
-  <si>
     <t>3. Each pike is equally likely to be anywhere in the region. This region can be the entire lake or the littoral zone. Must enter acreage for the zone you choose.</t>
   </si>
   <si>
@@ -136,9 +134,6 @@
     <t>P(detect) = P(detect &amp; present in region 1) + P(detect &amp; in region 2) + P(detect &amp; in region 3) by law of total probability</t>
   </si>
   <si>
-    <t>Conditional probs are given as inputs. Probability the fish is present in region is the proportion of area that region represents</t>
-  </si>
-  <si>
     <t>Probability of detection using both netting and eDNA:</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>which implies the probability of detecting a single pike with S samples is S*P(detect, 1 sample, 1 fish)</t>
   </si>
   <si>
-    <t>So all that changes for S sites is the proportion of areas be multipled by S</t>
-  </si>
-  <si>
     <t>Proportion of Total Area = probability a pike is present in region</t>
   </si>
   <si>
@@ -188,12 +180,21 @@
   </si>
   <si>
     <t>Number of eDNA samples Required</t>
+  </si>
+  <si>
+    <t>So all that changes for S sites is the proportion of areas is multiplied by S</t>
+  </si>
+  <si>
+    <t>The probability a pike is present in a region is the proportion of total area that represented by that region</t>
+  </si>
+  <si>
+    <t>Conditional probs are given as inputs. Probability the fish is present in region is the proportion of area in N21-N23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -903,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -918,7 +919,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -966,7 +967,7 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1162,14 +1163,14 @@
     </row>
     <row r="16" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6">
         <f>'eDNA Effort'!C6+'Netting Effort'!C6 -'eDNA Effort'!C6*'Netting Effort'!C6</f>
         <v>0.96</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1183,11 +1184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,7 +1209,7 @@
   <sheetData>
     <row r="1" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1260,7 +1261,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1281,7 +1282,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -1389,7 +1390,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1416,7 +1417,7 @@
     <row r="13" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D13" s="9"/>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -1432,7 +1433,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1462,7 +1463,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -1541,7 +1542,7 @@
       </c>
       <c r="M20" s="14"/>
       <c r="N20" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -1552,7 +1553,7 @@
     </row>
     <row r="21" spans="2:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="28">
         <f>_xlfn.CEILING.MATH((1-EXP(LN(1-C6)/C7))/C20)</f>
@@ -1585,7 +1586,7 @@
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -1691,24 +1692,24 @@
     <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F29" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1721,7 +1722,7 @@
     </row>
     <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F30" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -1734,20 +1735,20 @@
     </row>
     <row r="32" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="4:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F33" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
@@ -1777,7 +1778,7 @@
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39">
         <v>0.75</v>
